--- a/note/php-core.xlsx
+++ b/note/php-core.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,16 @@
     <sheet name="Basic syntax" sheetId="3" r:id="rId3"/>
     <sheet name="type" sheetId="5" r:id="rId4"/>
     <sheet name="boolean" sheetId="4" r:id="rId5"/>
+    <sheet name="integer" sheetId="6" r:id="rId6"/>
+    <sheet name="Float" sheetId="7" r:id="rId7"/>
+    <sheet name="String" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="143">
   <si>
     <r>
       <t xml:space="preserve">PHP (recursive acronym for PHP: </t>
@@ -900,12 +903,207 @@
   <si>
     <t>2. sự khác biệt khi trả về mảng rỗng giữa PHP và Javascript</t>
   </si>
+  <si>
+    <t xml:space="preserve">gettype
+=&gt; return integer, string, object, doulble, array, boolean </t>
+  </si>
+  <si>
+    <t>PHP does not support unsigned integers</t>
+  </si>
+  <si>
+    <t>PHP_INT_SIZE</t>
+  </si>
+  <si>
+    <t>PHP_INT_MAX</t>
+  </si>
+  <si>
+    <t>since PHP 5.0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PHP_INT_MIN</t>
+  </si>
+  <si>
+    <t>since PHP 7.0.0</t>
+  </si>
+  <si>
+    <t>return 8</t>
+  </si>
+  <si>
+    <t>If PHP encounters a number beyond the bounds of the integer type, it will be interpreted as a float instead</t>
+  </si>
+  <si>
+    <t>nếu vượt quá giới hạn integer nó sẽ được hiểu là 1 số float thay thế.</t>
+  </si>
+  <si>
+    <t>Converting to integer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is_int, is_integer, is_bool, is_string…..
+</t>
+  </si>
+  <si>
+    <t>https://www.php.net/manual/en/ref.var.php</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">$b = 3.456;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">echo (integer)$b;
+hoặc (int)$b; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+'=&gt; 2 cách này đều được</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">intval </t>
+  </si>
+  <si>
+    <t>https://www.php.net/manual/en/function.intval.php</t>
+  </si>
+  <si>
+    <t>convert from -&gt; number</t>
+  </si>
+  <si>
+    <t>FALSE will yield 0 (zero), and TRUE will yield 1 (one).</t>
+  </si>
+  <si>
+    <t>From floating point numbers</t>
+  </si>
+  <si>
+    <t>When converting from float to integer, the number will be rounded towards zero.</t>
+  </si>
+  <si>
+    <t>From NULL</t>
+  </si>
+  <si>
+    <t>=&gt; luôn luôn thành 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAN
+đây là  1 constant </t>
+  </si>
+  <si>
+    <t>Because NAN represents any number of different values</t>
+  </si>
+  <si>
+    <t>Kết quả này đại diện cho một giá trị không xác định hoặc không thể biểu thị trong các phép tính dấu phẩy động. Bất kỳ so sánh lỏng lẻo hoặc nghiêm ngặt nào của giá trị này so với bất kỳ giá trị nào khác, kể cả chính nó, ngoại trừ TRUE, sẽ có kết quả của FALSE</t>
+  </si>
+  <si>
+    <t>$x = 8 - 6.4;  // which is equal to 1.6
+$y = 1.6;
+var_dump($x == $y); // is not true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+var_dump(round($x, 2) == round($y, 2)); // this is true</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (\\)</t>
+  </si>
+  <si>
+    <t>(\)</t>
+  </si>
+  <si>
+    <t>To specify a literal single quote, escape it with a backslash (\)</t>
+  </si>
+  <si>
+    <t>To specify a literal backslash, double it (\\)</t>
+  </si>
+  <si>
+    <t>Unlike the double-quoted and heredoc syntaxes, variables and escape sequences for special characters will not be expanded when they occur in single quoted strings</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">các biến và kí tự đặc biệt sẽ ko xuất hiện trong các chuỗi </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Single quoted  </t>
+    </r>
+  </si>
+  <si>
+    <t>PHP_EOL</t>
+  </si>
+  <si>
+    <r>
+      <t>echo "He drank some juice made of</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> $juice</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ";
+echo "He drank some juice made of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${juice}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hiha ";</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -941,6 +1139,14 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1019,7 +1225,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1034,6 +1240,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1052,21 +1267,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1381,13 +1599,13 @@
   <sheetFormatPr defaultColWidth="34.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="8"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1501,13 +1719,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1593,7 +1811,7 @@
       <c r="B9" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="7" t="s">
         <v>75</v>
       </c>
       <c r="D9" s="3"/>
@@ -1604,7 +1822,7 @@
       <c r="B10" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="7" t="s">
         <v>92</v>
       </c>
       <c r="D10" s="3"/>
@@ -1656,13 +1874,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1814,8 +2032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1823,56 +2041,57 @@
     <col min="1" max="1" width="49.28515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="74" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="9" t="s">
         <v>55</v>
       </c>
       <c r="C3" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="6" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="6" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="15"/>
+      <c r="B5" s="9"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="9" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="9" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1931,7 +2150,11 @@
       <c r="A19" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="B19" s="16"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="19"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
@@ -1950,7 +2173,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="8" t="s">
         <v>79</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1964,11 +2187,17 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="B24" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="10" t="s">
         <v>95</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="105" x14ac:dyDescent="0.25">
@@ -2024,9 +2253,10 @@
     <hyperlink ref="F2" r:id="rId1"/>
     <hyperlink ref="F3" r:id="rId2"/>
     <hyperlink ref="F4" r:id="rId3"/>
+    <hyperlink ref="D24" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -2034,7 +2264,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -2049,13 +2279,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -2172,7 +2402,7 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
@@ -2202,4 +2432,317 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="54.7109375" customWidth="1"/>
+    <col min="2" max="2" width="70.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D6" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.5703125" customWidth="1"/>
+    <col min="2" max="2" width="46.85546875" customWidth="1"/>
+    <col min="3" max="3" width="106.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="60.28515625" customWidth="1"/>
+    <col min="2" max="2" width="83.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/note/php-core.xlsx
+++ b/note/php-core.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="integer" sheetId="6" r:id="rId6"/>
     <sheet name="Float" sheetId="7" r:id="rId7"/>
     <sheet name="String" sheetId="8" r:id="rId8"/>
+    <sheet name="array" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="198">
   <si>
     <r>
       <t xml:space="preserve">PHP (recursive acronym for PHP: </t>
@@ -1098,12 +1099,520 @@
       <t xml:space="preserve"> hiha ";</t>
     </r>
   </si>
+  <si>
+    <t>array
+list(vector)
+hash table
+dictionary, 
+collection, 
+stack, 
+queue,
+…………………….</t>
+  </si>
+  <si>
+    <t>array trong PHP có thể được coi là</t>
+  </si>
+  <si>
+    <t>cú pháp tạo mảng</t>
+  </si>
+  <si>
+    <t>array(
+    key  =&gt; value
+    ...
+)</t>
+  </si>
+  <si>
+    <t>dấu phẩy phần tử cuối cùng có thể được chọn. Nên bỏ qua</t>
+  </si>
+  <si>
+    <t>quan trọng</t>
+  </si>
+  <si>
+    <t>$array = [
+    "foo" =&gt; "bar",
+    "bar" =&gt; "foo",
+];</t>
+  </si>
+  <si>
+    <t>từ phiên bản 5.4 trở lên</t>
+  </si>
+  <si>
+    <t>=&gt; cú pháp [] ra đời sau và ưu việt hơn vì dễ nhìn</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>thường là integer hoặc string</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Floats</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> are also cast to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>integers,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> which means that the fractional part will be truncated.
+ E.g. the key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 8.7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> will actually be stored under </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+2) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bools</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> are cast to integers, too, i.e. the key </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> will actually be stored under </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and the key </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> under </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> will be cast to the empty string, i.e. the key null will actually be stored under </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>""</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+4) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Arrays and objects can not be</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> used as keys. Doing so will result in a</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> warning: Illegal offset type
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=&gt; các key có xu hướng convert về integer hoặc string</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;?php
+$array = array(
+    1    =&gt; "a",
+    "1"  =&gt; "b",
+    1.5  =&gt; "c",
+    true =&gt; "d",
+);</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> nếu có nhiều phần tử có key giống nhau nó sẽ bị ghe đè và lấy giá trị của phần tử cuối cùng</t>
+    </r>
+  </si>
+  <si>
+    <t>câu hỏi, ví dụ</t>
+  </si>
+  <si>
+    <t>1. key trong mảng có xu hướng convert về integer hoặc string (C4)</t>
+  </si>
+  <si>
+    <t>là optional (ko bắt buộc)</t>
+  </si>
+  <si>
+    <t>2. tự động đặt key (C6)</t>
+  </si>
+  <si>
+    <t>$array = array(
+         "a",
+         "b",
+    6 =&gt; "c",
+         "d",
+);</t>
+  </si>
+  <si>
+    <t>chính vì key là optional nên có thành phần có key, thành phần ko có key cũng chả sao</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>2 cách truy cập 
+thông thường sử dụng cách 1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">$array[42]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$array{42}</t>
+    </r>
+  </si>
+  <si>
+    <t>$arr[key] = value;
+$arr[] = value;</t>
+  </si>
+  <si>
+    <t>nếu mảng chưa được tạo thì nó sẽ tạo mảng luôn</t>
+  </si>
+  <si>
+    <t>unset</t>
+  </si>
+  <si>
+    <t>unset($arr[key]);</t>
+  </si>
+  <si>
+    <t>unset($arr)</t>
+  </si>
+  <si>
+    <t>xóa mọi phần tử</t>
+  </si>
+  <si>
+    <t>xóa 1 phần tử</t>
+  </si>
+  <si>
+    <t>1) nếu ko chỉ định tự động lấy key là kiểu integer + 1 từ key lớn nhất trước đó.
+ Vd mảng của bạn có 1 phần tử đặt key là 100 thì phần tử tiếp theo nếu ko đặt key là 101
+2)nếu chưa có key nào là integer tồn tại thì mặc định lấy bắt đầu là 0</t>
+  </si>
+  <si>
+    <t>function</t>
+  </si>
+  <si>
+    <t>https://www.php.net/manual/en/ref.array.php</t>
+  </si>
+  <si>
+    <t>https://www.php.net/manual/en/language.types.array.php</t>
+  </si>
+  <si>
+    <t>array_values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reindexed </t>
+  </si>
+  <si>
+    <t>reindexed lại khi remove các phần tử trong mảng bằng unset.</t>
+  </si>
+  <si>
+    <t>3. array_values dùng để reindex (C14)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $foo[bar] wrong</t>
+  </si>
+  <si>
+    <t>don'ts</t>
+  </si>
+  <si>
+    <t>Always use quotes around a string literal array index</t>
+  </si>
+  <si>
+    <t>luôn luôn sử dụng dấu ngoặc với key là string</t>
+  </si>
+  <si>
+    <t>$arr[fruit]
+$arr['fruit']</t>
+  </si>
+  <si>
+    <t>- fruit ở đây được hiểu là 1 hằng số
+-'fruit' là key index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">convert to array </t>
+  </si>
+  <si>
+    <t>integer, float, string, boolean and resource</t>
+  </si>
+  <si>
+    <t>(array)$var</t>
+  </si>
+  <si>
+    <t>integer, float, string, boolean and resource đều có thể convert về array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comparing </t>
+  </si>
+  <si>
+    <t>array_diff()</t>
+  </si>
+  <si>
+    <t>https://www.php.net/manual/en/language.operators.array.php</t>
+  </si>
+  <si>
+    <t>$arr1 = array(2, 3);
+$arr2 = $arr1;
+$arr2[] = 4; // $arr2 is changed,
+             // $arr1 is still array(2, 3)
+$arr3 = &amp;$arr1;
+$arr3[] = 4; // now $arr1 and $arr3 are the same</t>
+  </si>
+  <si>
+    <t>con trỏ</t>
+  </si>
+  <si>
+    <t>User Contributed Notes</t>
+  </si>
+  <si>
+    <t>……. (chưa đọc)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1151,6 +1660,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1160,7 +1696,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1220,12 +1756,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1249,6 +1822,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1273,18 +1858,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1599,13 +2197,13 @@
   <sheetFormatPr defaultColWidth="34.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="19"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1719,13 +2317,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="16"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1874,13 +2472,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="16"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -2147,14 +2745,14 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="B19" s="18"/>
+      <c r="B19" s="24"/>
       <c r="C19" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D19" s="19"/>
+      <c r="D19" s="11"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
@@ -2279,13 +2877,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="16"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -2503,7 +3101,7 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="12" t="s">
         <v>116</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2523,10 +3121,10 @@
       <c r="B6" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="14" t="s">
         <v>123</v>
       </c>
       <c r="E6" s="1"/>
@@ -2566,7 +3164,7 @@
       <c r="A9" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="15" t="s">
         <v>129</v>
       </c>
       <c r="C9" s="1"/>
@@ -2674,10 +3272,10 @@
       <c r="A1" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="16" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2698,8 +3296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2725,7 +3323,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="16" t="s">
         <v>139</v>
       </c>
       <c r="B3" t="s">
@@ -2745,4 +3343,323 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="25" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25" style="2"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="36.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="25" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="H3" s="16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="1"/>
+      <c r="H4" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="22"/>
+      <c r="H5" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A6" s="31"/>
+      <c r="B6" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="28"/>
+    </row>
+    <row r="7" spans="1:8" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="31"/>
+      <c r="B7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="22"/>
+    </row>
+    <row r="8" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" s="32"/>
+      <c r="B8" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>197</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="A5:A8"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B13" r:id="rId1"/>
+    <hyperlink ref="B1" r:id="rId2"/>
+    <hyperlink ref="C20" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+</worksheet>
 </file>
--- a/note/php-core.xlsx
+++ b/note/php-core.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="7" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,20 @@
     <sheet name="Float" sheetId="7" r:id="rId7"/>
     <sheet name="String" sheetId="8" r:id="rId8"/>
     <sheet name="array" sheetId="9" r:id="rId9"/>
+    <sheet name="Iterables " sheetId="10" r:id="rId10"/>
+    <sheet name="Object" sheetId="11" r:id="rId11"/>
+    <sheet name="Resources" sheetId="12" r:id="rId12"/>
+    <sheet name="Null" sheetId="13" r:id="rId13"/>
+    <sheet name="Callbacks   Callables " sheetId="14" r:id="rId14"/>
+    <sheet name="Pseudo-types" sheetId="15" r:id="rId15"/>
+    <sheet name="Type Juggling" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="253">
   <si>
     <r>
       <t xml:space="preserve">PHP (recursive acronym for PHP: </t>
@@ -1125,9 +1132,6 @@
     <t>dấu phẩy phần tử cuối cùng có thể được chọn. Nên bỏ qua</t>
   </si>
   <si>
-    <t>quan trọng</t>
-  </si>
-  <si>
     <t>$array = [
     "foo" =&gt; "bar",
     "bar" =&gt; "foo",
@@ -1607,12 +1611,496 @@
   <si>
     <t>……. (chưa đọc)</t>
   </si>
+  <si>
+    <t>operator</t>
+  </si>
+  <si>
+    <t>0 hiểu gì</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;?php
+class foo
+{
+    function do_foo()
+    {
+        echo "Doing foo."; 
+    }
+}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$bar = new foo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$bar-&gt;do_foo()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;
+?&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Converting to object </t>
+  </si>
+  <si>
+    <t>$obj = (object) array('1' =&gt; 'foo');</t>
+  </si>
+  <si>
+    <t>$obj-&gt;{'1'}</t>
+  </si>
+  <si>
+    <t>truy cập object với key là string</t>
+  </si>
+  <si>
+    <t>khác với js. $obj[1] sẽ ko hoạt động
+=&gt; object trong PHP ko dùng cú pháp truy cập mảng giống JS
+mà bắt buộc dùng obj-&gt;key</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">$obj = (object) 'ciao';
+echo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$obj-&gt;scalar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;  // outputs 'ciao'</t>
+    </r>
+  </si>
+  <si>
+    <t>scalar là một cú pháp đặc biệt chỉ các thành phần vô hướng khi nó ko có key trỏ tới</t>
+  </si>
+  <si>
+    <t>&lt;?php $genericObject = new stdClass(); ?&gt;</t>
+  </si>
+  <si>
+    <t>Cho đến nay, cách dễ nhất và chính xác để khởi tạo một object php chung trống mà bạn có thể sửa đổi cho bất kỳ mục đích nào</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHP7 có 3 cách </t>
+  </si>
+  <si>
+    <t>$obj1 = new \stdClass; // Instantiate stdClass object
+$obj2 = new class{}; // Instantiate anonymous class
+$obj3 = (object)[]; // Cast empty array to object</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $object = (object) [
+    'propertyOne' =&gt; 'foo',
+    'propertyTwo' =&gt; 42,
+  ];</t>
+  </si>
+  <si>
+    <t>convert từ mảng thành object</t>
+  </si>
+  <si>
+    <r>
+      <t>var_dump($obj1); // object(stdClass)#1 (0) {}
+var_dump($obj2); // object(class@anonymous)#2 (0) {}
+var_dump($obj3); // object(stdClass)#3 (0) {}
+'=&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> nếu dùng hãy ưu tiên dùng cách 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A variable is considered to be null if:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>it has been assigned the constant NULL.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+it has not been set to any value yet.
+it has been unset().</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">check null </t>
+  </si>
+  <si>
+    <t>is_null()</t>
+  </si>
+  <si>
+    <t>unset()</t>
+  </si>
+  <si>
+    <t>$a = array();
+$a == null  &lt;== return true
+$a === null &lt; == return false
+is_null($a) &lt;== return false</t>
+  </si>
+  <si>
+    <t>1. 2 cái này bằng giá trị
+2. $a là kiểu array còn null là kiểu null
+3 chính vì $a là kiểu array nên trong hàm is_null($a) trả về false là đúng rồi</t>
+  </si>
+  <si>
+    <t>tương tự vậy
+null == 0 (true)
+null ===0 (false)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mixed </t>
+  </si>
+  <si>
+    <t>mixed indicates that a parameter may accept multiple (but not necessarily all) types
+một tham số có thể chấp nhận nhiều loại  (ko nhất thiết là tất cả)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">gettype ( </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mixed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> $var ) : string</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>vd hàm gettype () chấp nhật nhiều loại tham số</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> mixed</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">number </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">chỉ ra rằng loại tham số có thể là </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>integer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hoặc </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>float</t>
+    </r>
+  </si>
+  <si>
+    <t>callback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">void </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nó được gán bằng constant (hằng số) NULL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2. nó ko gán bất kỳ giá trị nào
+3. nó đã bị unset (vd phần tử mảng bị unset)</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.php.net/manual/en/ref.mbstring.php</t>
+  </si>
+  <si>
+    <t>multiple byte function</t>
+  </si>
+  <si>
+    <t>https://www.php.net/manual/en/ref.strings.php</t>
+  </si>
+  <si>
+    <t>string function</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PHP supports indexing into strings via offsets using the same syntax as array indexing
+PHP hỗ trợ đánh chỉ mục trong chuỗi giống cú pháp array indexing</t>
+  </si>
+  <si>
+    <t>vì vậy $str = 'abcdfasd' 
+có thể truy cập $str[0] = 'a', $str[1] = 'b'</t>
+  </si>
+  <si>
+    <t>……………………………………</t>
+  </si>
+  <si>
+    <t>tùy theo ngữ cảnh mà PHP tự convert biến thành các type khác nhau</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(int), (integer) - cast to integer
+(bool), (boolean) - cast to boolean
+(float), (double), (real) - cast to float
+(string) - cast to string
+(array) - cast to array
+(object) - cast to object
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(unset) - cast to NULL
+(binary)   được đưa thêm vào từ PHP 5.21</t>
+    </r>
+  </si>
+  <si>
+    <t>(unset) cast to NULL sẽ bị remove từ PHP 8.0</t>
+  </si>
+  <si>
+    <t>&lt;?php
+$foo = (int) $bar;
+$foo = ( int ) $bar;
+?&gt;</t>
+  </si>
+  <si>
+    <t>các tab và space được phép bên trong ngoặc đơn nên TH2 vẫn đúng</t>
+  </si>
+  <si>
+    <t>Casting literal strings and variables to binary strings:</t>
+  </si>
+  <si>
+    <t>&lt;?php
+$binary = (binary) $string;
+$binary = b"binary string";
+?&gt;</t>
+  </si>
+  <si>
+    <t>isset($array[6]);
+ empty($array[6]);
+array_key_exists(6, $array)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">check phần tử tồn tại trong mảng có thể dùng </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">empty </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">hoặc </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">isset
+array_key_exists </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>check xem key có tồn tại trong mảng hay ko</t>
+    </r>
+  </si>
+  <si>
+    <t>set null</t>
+  </si>
+  <si>
+    <t>&lt;?php
+$var = NULL;       
+?&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Casting to NULL </t>
+  </si>
+  <si>
+    <t>Casting a variable to null using (unset) $var will not remove the variable or unset its value. It will only return a NULL value.</t>
+  </si>
+  <si>
+    <t>Double quoted</t>
+  </si>
+  <si>
+    <t>\n linefeed (LF or 0x0A (10) in ASCII)
+\r carriage return (CR or 0x0D (13) in ASCII)
+\t horizontal tab (HT or 0x09 (9) in ASCII)
+\v vertical tab (VT or 0x0B (11) in ASCII) (since PHP 5.2.5)
+\e escape (ESC or 0x1B (27) in ASCII) (since PHP 5.4.4)
+\f form feed (FF or 0x0C (12) in ASCII) (since PHP 5.2.5)
+\\ backslash
+\$ dollar sign
+\"</t>
+  </si>
+  <si>
+    <t>chỉ có tác dụng khi dùng với double quoted</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1683,6 +2171,47 @@
       <u/>
       <sz val="11"/>
       <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="4"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1798,7 +2327,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1834,6 +2363,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1858,19 +2389,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1882,7 +2413,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2197,13 +2746,13 @@
   <sheetFormatPr defaultColWidth="34.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -2298,6 +2847,879 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="29.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="46.28515625" customWidth="1"/>
+    <col min="5" max="5" width="47" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" ht="61.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="45.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="24"/>
+    </row>
+    <row r="7" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="D7" s="36"/>
+      <c r="E7" s="37"/>
+    </row>
+    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="25.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="37.28515625" customWidth="1"/>
+    <col min="3" max="3" width="42.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="36.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2" s="20"/>
+      <c r="E2" s="21"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="21"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="B3:E3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="39.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2317,13 +3739,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -2472,13 +3894,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -2630,8 +4052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2679,6 +4101,9 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="9"/>
+      <c r="F5" s="6" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -2745,10 +4170,10 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="B19" s="24"/>
+      <c r="B19" s="26"/>
       <c r="C19" s="2" t="s">
         <v>108</v>
       </c>
@@ -2852,9 +4277,10 @@
     <hyperlink ref="F3" r:id="rId2"/>
     <hyperlink ref="F4" r:id="rId3"/>
     <hyperlink ref="D24" r:id="rId4"/>
+    <hyperlink ref="F5" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -2877,13 +4303,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -3294,10 +4720,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3306,51 +4732,97 @@
     <col min="2" max="2" width="83.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>136</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>135</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="6" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
         <v>142</v>
       </c>
     </row>
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>236</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B1" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3358,308 +4830,335 @@
     <col min="1" max="1" width="25" style="2"/>
     <col min="2" max="2" width="29.7109375" customWidth="1"/>
     <col min="3" max="3" width="36.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="25" style="2"/>
+    <col min="7" max="7" width="25" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="26" t="s">
+      <c r="C6" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="H3" s="16" t="s">
+      <c r="B7" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A8" s="33"/>
+      <c r="B8" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="31"/>
+    </row>
+    <row r="9" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="33"/>
+      <c r="B9" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="1"/>
-      <c r="H4" s="2" t="s">
+      <c r="C9" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="24"/>
+    </row>
+    <row r="10" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A10" s="34"/>
+      <c r="B10" s="3" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="114" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="22"/>
-      <c r="H5" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
-      <c r="B6" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="28"/>
-    </row>
-    <row r="7" spans="1:8" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
-      <c r="B7" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="22"/>
-    </row>
-    <row r="8" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
-      <c r="B8" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>167</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>164</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="B12" s="1" t="s">
-        <v>170</v>
+      <c r="B12" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="C13" s="3"/>
+        <v>167</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>171</v>
+      </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>177</v>
-      </c>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
       <c r="B14" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="1"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>174</v>
+      </c>
       <c r="C15" s="3"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>182</v>
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>176</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>184</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
-      <c r="B17" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>186</v>
-      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="3"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>190</v>
+        <v>182</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>185</v>
+      </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="D20" s="1"/>
+        <v>188</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>189</v>
+      </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>195</v>
-      </c>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="3" t="s">
-        <v>194</v>
-      </c>
+      <c r="C21" s="3"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="38"/>
+      <c r="B24" s="40" t="s">
+        <v>244</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>245</v>
+      </c>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B25" s="17" t="s">
         <v>196</v>
-      </c>
-      <c r="B22" s="33" t="s">
-        <v>197</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="E5:E6"/>
     <mergeCell ref="C7:F7"/>
-    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="A7:A10"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B13" r:id="rId1"/>
+    <hyperlink ref="B15" r:id="rId1"/>
     <hyperlink ref="B1" r:id="rId2"/>
-    <hyperlink ref="C20" r:id="rId3"/>
+    <hyperlink ref="C22" r:id="rId3"/>
+    <hyperlink ref="B2" r:id="rId4"/>
+    <hyperlink ref="B3" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>